--- a/output/fit_clients/fit_round_478.xlsx
+++ b/output/fit_clients/fit_round_478.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2493889620.795755</v>
+        <v>1681939404.209233</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08095641670502077</v>
+        <v>0.08004824738414025</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03382658296647097</v>
+        <v>0.03720074194374251</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1246944872.454656</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2499868819.183695</v>
+        <v>1747132837.635529</v>
       </c>
       <c r="F3" t="n">
-        <v>0.161914338213447</v>
+        <v>0.1786432620174071</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03972788693933251</v>
+        <v>0.0468057281302002</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1249934527.082601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4092394727.081408</v>
+        <v>3540514903.183832</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1015992580901012</v>
+        <v>0.1040335483796839</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03797848425827495</v>
+        <v>0.03409635947522662</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>172</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2046197384.297626</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4006344743.82454</v>
+        <v>2909195992.66861</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0883619674128385</v>
+        <v>0.08863249569009134</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05015982824437409</v>
+        <v>0.05021100618024946</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>176</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2003172375.23853</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1999732729.17687</v>
+        <v>1863465500.634</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1134069387959496</v>
+        <v>0.1084547393298688</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04390180155898304</v>
+        <v>0.04921124540353941</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>91</v>
-      </c>
-      <c r="J6" t="n">
-        <v>999866394.2360332</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2072605373.08296</v>
+        <v>2977262589.731186</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07073618718447271</v>
+        <v>0.09332674511595622</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03567963395012671</v>
+        <v>0.04617627633881202</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>150</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1036302740.786059</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2532060703.955984</v>
+        <v>2977384146.160031</v>
       </c>
       <c r="F8" t="n">
-        <v>0.201932657262261</v>
+        <v>0.2148953487272205</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02118228838748241</v>
+        <v>0.0304481974014391</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>152</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1266030361.678865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1805598164.812503</v>
+        <v>2036643706.956184</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1622263749601348</v>
+        <v>0.1265382468267336</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03229301157405273</v>
+        <v>0.02561400002937753</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>902799136.0140821</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5242773012.244402</v>
+        <v>5245480402.782865</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2047854120127955</v>
+        <v>0.1976012185185048</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04124892572196746</v>
+        <v>0.04286778746954262</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>201</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2621386624.283773</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2677230486.136476</v>
+        <v>2645872274.799066</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1356024076856453</v>
+        <v>0.127545687802334</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04405637580222543</v>
+        <v>0.03543602635615987</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>197</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1338615163.512101</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2436124751.925698</v>
+        <v>3281958639.617826</v>
       </c>
       <c r="F12" t="n">
-        <v>0.124336739710398</v>
+        <v>0.1450995120655288</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04000095520243446</v>
+        <v>0.03968418782872042</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>162</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1218062342.347426</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4822692476.614923</v>
+        <v>4289445443.903237</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06506628313334274</v>
+        <v>0.09093452471325379</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01940002773527127</v>
+        <v>0.03095077276156945</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>160</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2411346251.472101</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2382812387.24334</v>
+        <v>2419912351.339491</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1734807546885953</v>
+        <v>0.1861090587823789</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03102625139852581</v>
+        <v>0.02917029878580486</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>152</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1191406272.776665</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1472930288.776873</v>
+        <v>1357473194.790621</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06924467077311748</v>
+        <v>0.08710424276225479</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04941587479572024</v>
+        <v>0.04760108436865041</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>736465223.7747834</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1892351674.388082</v>
+        <v>2274400405.882277</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09036265962381618</v>
+        <v>0.100877239816029</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03262157041587766</v>
+        <v>0.03607287961495134</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>100</v>
-      </c>
-      <c r="J16" t="n">
-        <v>946175922.3305398</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4189328192.115562</v>
+        <v>4529702490.927128</v>
       </c>
       <c r="F17" t="n">
-        <v>0.129527930515265</v>
+        <v>0.1054004367691232</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04278111908383858</v>
+        <v>0.04437544292195207</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>142</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2094664121.339891</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3060996158.142669</v>
+        <v>3748013303.923806</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1397858938329992</v>
+        <v>0.1256581011992511</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03269380857817218</v>
+        <v>0.02333033821178338</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>156</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1530498104.992613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>977305184.2232</v>
+        <v>1270722374.374602</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1381891652657016</v>
+        <v>0.1221462159291653</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01926226413420863</v>
+        <v>0.01667260342639866</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>488652615.8507866</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1939802147.628124</v>
+        <v>2616986174.072923</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1004977798172631</v>
+        <v>0.1155479661120365</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02843778321417074</v>
+        <v>0.02047475568928726</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>68</v>
-      </c>
-      <c r="J20" t="n">
-        <v>969901106.578434</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1984443193.594338</v>
+        <v>2325596686.189233</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06486321024940397</v>
+        <v>0.09125782452913814</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03241352929978639</v>
+        <v>0.03117958173373761</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>992221634.2376697</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3775459009.339456</v>
+        <v>2488066025.372605</v>
       </c>
       <c r="F22" t="n">
-        <v>0.126381725995439</v>
+        <v>0.1197363052536749</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04268453309973508</v>
+        <v>0.05077309783488832</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>134</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1887729519.783844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1395979684.263241</v>
+        <v>1469264276.721622</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1676618068900038</v>
+        <v>0.1151074515182816</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05458219404050689</v>
+        <v>0.03942923616033807</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>697989845.6123556</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3189689790.728758</v>
+        <v>3290677810.503762</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1492489778276206</v>
+        <v>0.135280742400736</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03059339109007261</v>
+        <v>0.02514109617775761</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>140</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1594844917.874779</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1332073172.264595</v>
+        <v>958261738.8042458</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08272958053591435</v>
+        <v>0.07569404501553328</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0229180521564576</v>
+        <v>0.01963334418470964</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>666036573.7292581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>960077316.8960341</v>
+        <v>1239515531.502783</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07508294659866441</v>
+        <v>0.09747046119707105</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03420478480946298</v>
+        <v>0.02438027493566385</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>480038620.8304444</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4305021753.639955</v>
+        <v>3878451728.751283</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1120308038970532</v>
+        <v>0.1004122865117288</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02672877211467338</v>
+        <v>0.02662159828981971</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>123</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2152510871.843047</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3895074973.3879</v>
+        <v>2819679118.478567</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1463782757761641</v>
+        <v>0.1308847271854389</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04690106611800617</v>
+        <v>0.04405940964398378</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>155</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1947537575.643511</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5138122943.750212</v>
+        <v>3766747754.21032</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1315627166980079</v>
+        <v>0.1190162525534187</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03229260694493967</v>
+        <v>0.02827062333536601</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>211</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2569061409.855779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1692250667.992584</v>
+        <v>2329827553.637145</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1105381055834838</v>
+        <v>0.1148487178012689</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0320241687767461</v>
+        <v>0.03097604553579772</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>846125336.4255663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>955599294.2542093</v>
+        <v>999675491.4589238</v>
       </c>
       <c r="F31" t="n">
-        <v>0.111994157524399</v>
+        <v>0.07623781630776491</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04928719875609389</v>
+        <v>0.04038896444855911</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>477799656.1390081</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1595180324.040746</v>
+        <v>1578575430.919234</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1187895799026111</v>
+        <v>0.1177534846910876</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02758921416938937</v>
+        <v>0.02424488535270218</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>797590250.1157941</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2029734104.157929</v>
+        <v>2388568011.729703</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1905856676315044</v>
+        <v>0.185007829463441</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04601375562811663</v>
+        <v>0.04318312521964503</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>145</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1014867130.358672</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1435191210.21187</v>
+        <v>1145133559.040354</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1153973168146953</v>
+        <v>0.08441335656202549</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01811838804668314</v>
+        <v>0.02803169783124566</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>717595571.583235</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1021684147.601452</v>
+        <v>864466561.9065486</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0845212305280728</v>
+        <v>0.08210074664874413</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04219586590075516</v>
+        <v>0.03454669126151168</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>510842087.6585974</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2259100067.460311</v>
+        <v>2076966013.673441</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1704330592491098</v>
+        <v>0.1314763290496889</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02149824489426166</v>
+        <v>0.02000586000365556</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>122</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1129550075.007409</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2137929053.759971</v>
+        <v>2848809112.878374</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09498830378888923</v>
+        <v>0.09427909194923605</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04197914629334731</v>
+        <v>0.03381479873110282</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>128</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1068964573.163464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1597402478.052398</v>
+        <v>1846662473.69739</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08417314792754581</v>
+        <v>0.08243579973220556</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03393340991324919</v>
+        <v>0.03335203703343722</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>798701274.5528516</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1602587358.838286</v>
+        <v>1498482316.569481</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1190874037729336</v>
+        <v>0.12006095109744</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02949158993702035</v>
+        <v>0.032153619162913</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>801293734.309428</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1252751887.106716</v>
+        <v>1482220214.528379</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1389675249079976</v>
+        <v>0.1108744524009393</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05742738077791808</v>
+        <v>0.0523151448285381</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>626375971.6489694</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1993650168.951831</v>
+        <v>2702724706.565084</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1008648148834879</v>
+        <v>0.1004713485205276</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04642291559505191</v>
+        <v>0.04411342046554561</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>116</v>
-      </c>
-      <c r="J41" t="n">
-        <v>996825159.3922069</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4168677563.565696</v>
+        <v>3745419365.722839</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07784286140143661</v>
+        <v>0.08112392675924771</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03907021976383308</v>
+        <v>0.04154162925279853</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>156</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2084338822.709411</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2582965042.756942</v>
+        <v>2950797819.502834</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2040468162183779</v>
+        <v>0.1590959583817331</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0212887111099397</v>
+        <v>0.02451501477927965</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>166</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1291482561.706405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2181855574.261578</v>
+        <v>2185389276.363382</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07646529468176044</v>
+        <v>0.09140701251591192</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02457029795459034</v>
+        <v>0.02904265082531959</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1090927929.765779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1714242323.641416</v>
+        <v>2228894901.899288</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1685453397660782</v>
+        <v>0.1882912114197664</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05532197030402466</v>
+        <v>0.03516104212704747</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>857121123.8941431</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3740321061.445317</v>
+        <v>4526000123.299945</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1651488392853383</v>
+        <v>0.1603158235633404</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05011806678889056</v>
+        <v>0.04258941187900226</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>170</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1870160485.403986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4070186343.509469</v>
+        <v>3223395308.019028</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1897634498803754</v>
+        <v>0.193305956610687</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05514336602870772</v>
+        <v>0.05124879909841195</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>131</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2035093174.93044</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4588698253.594205</v>
+        <v>4650038607.594363</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1018595843272617</v>
+        <v>0.08821614290905656</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02602953388712228</v>
+        <v>0.03896342307124279</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>155</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2294349126.9493</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1623084519.273936</v>
+        <v>1449112336.764432</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1836407459304145</v>
+        <v>0.1443832341970417</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03305348865879298</v>
+        <v>0.02778789030734001</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>811542272.5560592</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3802791394.063384</v>
+        <v>2630613372.457782</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1630131613771653</v>
+        <v>0.1299880068411141</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0383784990161499</v>
+        <v>0.05085815812031082</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>163</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1901395699.758569</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1189649654.871782</v>
+        <v>1337246323.248435</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1411552399275249</v>
+        <v>0.1923016142339151</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03456683886181495</v>
+        <v>0.03460742165518441</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>594824880.6943058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4027207409.367595</v>
+        <v>3297167518.6559</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1341978597902194</v>
+        <v>0.1166504755637202</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04837553108750359</v>
+        <v>0.05810295823527422</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>197</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2013603759.578106</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2492569596.435813</v>
+        <v>3789293917.508893</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1435321107041239</v>
+        <v>0.1948460844058798</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02516938854649423</v>
+        <v>0.02939809057880548</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>138</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1246284865.72962</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4131214883.10797</v>
+        <v>4393557287.315574</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1663340082179116</v>
+        <v>0.1509262396483248</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03641139643937434</v>
+        <v>0.03971847231253548</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>155</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2065607515.950199</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4684013376.8359</v>
+        <v>4654425350.773756</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1496857510107223</v>
+        <v>0.1443604014109892</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03045998777994018</v>
+        <v>0.03219831926078717</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2342006693.52262</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1474574946.729152</v>
+        <v>1605506847.137789</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1140831420107254</v>
+        <v>0.1381559256410309</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04565126137463103</v>
+        <v>0.05154776485424063</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>737287519.4082589</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3030524029.583968</v>
+        <v>3420795711.883811</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1276530932219926</v>
+        <v>0.1352906927287502</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0169936305114383</v>
+        <v>0.02031557997044862</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>151</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1515262021.78301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1722357906.521111</v>
+        <v>1518336898.836996</v>
       </c>
       <c r="F58" t="n">
-        <v>0.188235586514519</v>
+        <v>0.1486699250671533</v>
       </c>
       <c r="G58" t="n">
-        <v>0.031513798914086</v>
+        <v>0.02716937644587625</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>861178964.1250497</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4613404126.155651</v>
+        <v>4987543861.070255</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07941638112742207</v>
+        <v>0.1284843513382256</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03372866532166088</v>
+        <v>0.04662156008731635</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>134</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2306702009.468899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3558693652.172918</v>
+        <v>3029205421.420784</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1702138330264445</v>
+        <v>0.1513533127343784</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0278280831328347</v>
+        <v>0.03250294568070552</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>148</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1779346955.061001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2881659116.801638</v>
+        <v>3388026240.136493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1139857623690947</v>
+        <v>0.1459613872149562</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02344209483580485</v>
+        <v>0.03259755557425928</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>163</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1440829550.050554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1667689676.860719</v>
+        <v>1564902679.191338</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1430626296035399</v>
+        <v>0.1366897462888741</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04512978977140691</v>
+        <v>0.03117096336276384</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>833844846.6779647</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5593624303.373313</v>
+        <v>5090552499.548999</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07401385770324199</v>
+        <v>0.09662444465859901</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04269498636226762</v>
+        <v>0.04453436595162521</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>138</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2796812142.965279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4741022773.703197</v>
+        <v>4855395985.077931</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1224391661326403</v>
+        <v>0.1414755350286568</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03497691095542869</v>
+        <v>0.02700309445231984</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>148</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2370511474.859695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5124813870.045754</v>
+        <v>5823110597.462705</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1177921354779111</v>
+        <v>0.1474410161697231</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02756369701513777</v>
+        <v>0.02997458583229705</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>171</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2562406886.495449</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4722946858.664787</v>
+        <v>3901793370.038239</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1171628363031572</v>
+        <v>0.1621265191227934</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04385928068157965</v>
+        <v>0.03655415655894317</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>140</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2361473441.709295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2855947522.165924</v>
+        <v>2700523364.682137</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09994981772945373</v>
+        <v>0.09079591474262198</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03749791247265941</v>
+        <v>0.04709554927752489</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>153</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1427973791.533504</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5161694970.201708</v>
+        <v>4028536365.783461</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09911256488955503</v>
+        <v>0.1582488932123954</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03446981496428742</v>
+        <v>0.04421897816137983</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>151</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2580847551.325733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1607373386.253227</v>
+        <v>2069397578.928944</v>
       </c>
       <c r="F69" t="n">
-        <v>0.161630147308165</v>
+        <v>0.1192516567065273</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04843051784897898</v>
+        <v>0.05474133630541746</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
         <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>803686647.365113</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2806014111.161809</v>
+        <v>3376002261.476379</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08804104643780748</v>
+        <v>0.06902737617545318</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04325425592274149</v>
+        <v>0.03219988740391938</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>136</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1403007020.041039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4953662890.873831</v>
+        <v>4599686898.915003</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1682205230461506</v>
+        <v>0.1632029830680803</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02919215738966241</v>
+        <v>0.02324986542753711</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>174</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2476831547.741997</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1533296545.919162</v>
+        <v>1626812857.639307</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0866351775623924</v>
+        <v>0.1035687357757574</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03870219922046685</v>
+        <v>0.04302765761805699</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>766648294.6050054</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3187035981.036809</v>
+        <v>2722503349.238566</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07255792023445112</v>
+        <v>0.087038463727742</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04031232713433047</v>
+        <v>0.03220158462035021</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>180</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1593517969.388068</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3610863474.374202</v>
+        <v>3945709875.741475</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1164936528648161</v>
+        <v>0.1826958004914574</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03382539686096093</v>
+        <v>0.02173284201465089</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>163</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1805431749.816592</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2364804968.217436</v>
+        <v>2336518450.641647</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1125444531363121</v>
+        <v>0.1385689127811799</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03263240155396938</v>
+        <v>0.03047118821218828</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1182402414.068519</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4528649998.317912</v>
+        <v>4675190125.248224</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1209502088783139</v>
+        <v>0.09265576277307824</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03269186037057151</v>
+        <v>0.02368956781130086</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2264325006.039593</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1749171756.19609</v>
+        <v>2283414288.220088</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1516934256005202</v>
+        <v>0.1526256493772213</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02667205540279645</v>
+        <v>0.02891047191902548</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>874585902.6343304</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3308611361.406442</v>
+        <v>4539788929.496692</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1197740918854741</v>
+        <v>0.1187606047040793</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0379387039441123</v>
+        <v>0.03666275118385722</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>166</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1654305695.945031</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1271869535.777665</v>
+        <v>1639294456.628405</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1598375120901581</v>
+        <v>0.1648637454300282</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03969300749800954</v>
+        <v>0.03316808369610217</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>635934762.2242689</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4680030788.085187</v>
+        <v>4814357011.156141</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1031354808944308</v>
+        <v>0.0731238247027008</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02480459398507486</v>
+        <v>0.03009499099527755</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2340015427.375858</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4674779669.624551</v>
+        <v>5038261568.814652</v>
       </c>
       <c r="F81" t="n">
-        <v>0.118584257164975</v>
+        <v>0.1143756843268394</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03247060116867135</v>
+        <v>0.03024478336269758</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2337389823.107123</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3504691165.275303</v>
+        <v>4126494815.197361</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1559147765925043</v>
+        <v>0.2043981172058015</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01863524630804364</v>
+        <v>0.02038088539288357</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>168</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1752345650.06231</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1888088463.22612</v>
+        <v>2437397432.77567</v>
       </c>
       <c r="F83" t="n">
-        <v>0.157486348910702</v>
+        <v>0.1452180206260678</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03674710114357028</v>
+        <v>0.03309851803985645</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>944044203.0455464</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2239312198.054079</v>
+        <v>2210021252.565096</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1159476788263245</v>
+        <v>0.07329873362324861</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03748990976415082</v>
+        <v>0.03262379616178553</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1119656068.993954</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3170929284.078231</v>
+        <v>2788615885.139124</v>
       </c>
       <c r="F85" t="n">
-        <v>0.15397387375067</v>
+        <v>0.1620593879724178</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0526856668611869</v>
+        <v>0.0477942345620698</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>179</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1585464721.083981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1923323925.499686</v>
+        <v>2110882469.050844</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1211114886482821</v>
+        <v>0.1587152467654148</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02252341521667782</v>
+        <v>0.02761384587239805</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>961661979.7396168</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1260158224.177415</v>
+        <v>1001170516.286853</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1512664816203927</v>
+        <v>0.170872045195215</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02984173199034082</v>
+        <v>0.03065626966512402</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>630079183.1091961</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2554469620.341533</v>
+        <v>3478084310.521722</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1654343038191809</v>
+        <v>0.1686832103903662</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03478617797392237</v>
+        <v>0.03844284986942525</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>190</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1277234796.597235</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3324746661.198259</v>
+        <v>3436822610.865087</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1045994551370588</v>
+        <v>0.1347282884661425</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03302946485665776</v>
+        <v>0.02853542234795707</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>162</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1662373344.940335</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2068430138.171219</v>
+        <v>1562403311.334295</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08963946479621018</v>
+        <v>0.1179514729607533</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04526229476000808</v>
+        <v>0.03874494265095256</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1034215151.846549</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1916061834.21032</v>
+        <v>1858786250.02117</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1461133649774287</v>
+        <v>0.161016529901664</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05460653400954882</v>
+        <v>0.0560048604180699</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>958030900.5731816</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2090257931.594224</v>
+        <v>2681668825.98054</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1089182660467786</v>
+        <v>0.09548306778794639</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04298626878311768</v>
+        <v>0.04054478617473256</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>131</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1045128918.824736</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3175544536.998588</v>
+        <v>4657361264.325685</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1401161899538629</v>
+        <v>0.1344135563877385</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0471479050020199</v>
+        <v>0.04336213587734357</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>141</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1587772322.431617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1605008931.495265</v>
+        <v>2170233683.680701</v>
       </c>
       <c r="F94" t="n">
-        <v>0.12103176315023</v>
+        <v>0.1055602347664922</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03527643225977496</v>
+        <v>0.0284105167000388</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>802504412.7673702</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>1986598956.953824</v>
+        <v>2899197338.450825</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1192796299335065</v>
+        <v>0.1290232071844167</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05222602961534218</v>
+        <v>0.04881739574720984</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>118</v>
-      </c>
-      <c r="J95" t="n">
-        <v>993299551.9088054</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1633829202.781058</v>
+        <v>1538961692.282259</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09007604058832443</v>
+        <v>0.136761419350353</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03043162851448533</v>
+        <v>0.03135557828110851</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>816914627.4686601</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4600170869.702924</v>
+        <v>4834172344.442248</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1075969470706665</v>
+        <v>0.1282067552031124</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01788654283548845</v>
+        <v>0.02756562370657397</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>153</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2300085539.512073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2474385630.293703</v>
+        <v>3714355324.277635</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09257004144742315</v>
+        <v>0.1080089028757741</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02938698687121249</v>
+        <v>0.02180168136358457</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>127</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1237192764.212938</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3158434918.887971</v>
+        <v>2627360080.365995</v>
       </c>
       <c r="F99" t="n">
-        <v>0.105108344271657</v>
+        <v>0.1404828337656362</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0327304548304723</v>
+        <v>0.02519940189894609</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>149</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1579217456.944796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4114848466.394653</v>
+        <v>4508953083.056711</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1272858664034024</v>
+        <v>0.1529073855683985</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02568786693458974</v>
+        <v>0.02287767881179555</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>147</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2057424313.060889</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3035589583.017237</v>
+        <v>2429798164.833041</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1384219621821047</v>
+        <v>0.1964813410456806</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05218960918346921</v>
+        <v>0.05305762142447371</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>196</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1517794885.334495</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_478.xlsx
+++ b/output/fit_clients/fit_round_478.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1681939404.209233</v>
+        <v>1547290808.932338</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08004824738414025</v>
+        <v>0.1105135787041996</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03720074194374251</v>
+        <v>0.03390985766854217</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1747132837.635529</v>
+        <v>2276561083.111305</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1786432620174071</v>
+        <v>0.1167365396797475</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0468057281302002</v>
+        <v>0.04176798364700449</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3540514903.183832</v>
+        <v>3789833863.420127</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1040335483796839</v>
+        <v>0.1302047392953634</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03409635947522662</v>
+        <v>0.03349263039241426</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2909195992.66861</v>
+        <v>3167487456.106742</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08863249569009134</v>
+        <v>0.06681520591838498</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05021100618024946</v>
+        <v>0.04977486765576816</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1863465500.634</v>
+        <v>2148188602.0273</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1084547393298688</v>
+        <v>0.09377624221379585</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04921124540353941</v>
+        <v>0.04898870463947649</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2977262589.731186</v>
+        <v>3151452179.23105</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09332674511595622</v>
+        <v>0.07833269643409109</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04617627633881202</v>
+        <v>0.04958221602090256</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2977384146.160031</v>
+        <v>3394266572.737136</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2148953487272205</v>
+        <v>0.1909275542557813</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0304481974014391</v>
+        <v>0.02680944572585612</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2036643706.956184</v>
+        <v>2218045701.401538</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1265382468267336</v>
+        <v>0.1876897002660628</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02561400002937753</v>
+        <v>0.02678050470253244</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5245480402.782865</v>
+        <v>5716363394.266025</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1976012185185048</v>
+        <v>0.1768811331111433</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04286778746954262</v>
+        <v>0.04295979024609586</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2645872274.799066</v>
+        <v>3707804059.058742</v>
       </c>
       <c r="F11" t="n">
-        <v>0.127545687802334</v>
+        <v>0.1560133282782199</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03543602635615987</v>
+        <v>0.03805756335820397</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3281958639.617826</v>
+        <v>2740044005.627097</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1450995120655288</v>
+        <v>0.1678505991572997</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03968418782872042</v>
+        <v>0.03911460177870111</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4289445443.903237</v>
+        <v>4796416914.898313</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09093452471325379</v>
+        <v>0.09686654240821847</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03095077276156945</v>
+        <v>0.01926569875962869</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2419912351.339491</v>
+        <v>3457187638.593742</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1861090587823789</v>
+        <v>0.1628999453166026</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02917029878580486</v>
+        <v>0.02879215745590179</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1357473194.790621</v>
+        <v>1369119422.794301</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08710424276225479</v>
+        <v>0.08675840913513623</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04760108436865041</v>
+        <v>0.03922596274850879</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2274400405.882277</v>
+        <v>2459522838.070843</v>
       </c>
       <c r="F16" t="n">
-        <v>0.100877239816029</v>
+        <v>0.08772317746831175</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03607287961495134</v>
+        <v>0.0464829546138378</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4529702490.927128</v>
+        <v>3632025360.592767</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1054004367691232</v>
+        <v>0.1123150078851183</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04437544292195207</v>
+        <v>0.04433838282596549</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3748013303.923806</v>
+        <v>2605005293.38741</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1256581011992511</v>
+        <v>0.1765282031848194</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02333033821178338</v>
+        <v>0.02516611240067881</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1270722374.374602</v>
+        <v>1322484510.777296</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1221462159291653</v>
+        <v>0.1316983352872076</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01667260342639866</v>
+        <v>0.02445936141731387</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2616986174.072923</v>
+        <v>2119163795.767851</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1155479661120365</v>
+        <v>0.1478375539888601</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02047475568928726</v>
+        <v>0.02427309307204359</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2325596686.189233</v>
+        <v>2620332326.795668</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09125782452913814</v>
+        <v>0.08969168951487948</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03117958173373761</v>
+        <v>0.03771817402975809</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2488066025.372605</v>
+        <v>3743301852.421489</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1197363052536749</v>
+        <v>0.1300229183465197</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05077309783488832</v>
+        <v>0.05462950613588568</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1469264276.721622</v>
+        <v>1459689741.308835</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1151074515182816</v>
+        <v>0.1665903792950597</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03942923616033807</v>
+        <v>0.0451043788426957</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3290677810.503762</v>
+        <v>2602957169.700802</v>
       </c>
       <c r="F24" t="n">
-        <v>0.135280742400736</v>
+        <v>0.1088269202698222</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02514109617775761</v>
+        <v>0.03087322799237426</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>958261738.8042458</v>
+        <v>959068253.5108556</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07569404501553328</v>
+        <v>0.09904283603527211</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01963334418470964</v>
+        <v>0.02835944724178844</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1239515531.502783</v>
+        <v>1305805958.639186</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09747046119707105</v>
+        <v>0.09153779035391935</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02438027493566385</v>
+        <v>0.02495070586069868</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3878451728.751283</v>
+        <v>2922780984.804821</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1004122865117288</v>
+        <v>0.124617681425552</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02662159828981971</v>
+        <v>0.01956662301049612</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2819679118.478567</v>
+        <v>2643704360.464306</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1308847271854389</v>
+        <v>0.1020498479206024</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04405940964398378</v>
+        <v>0.03852264103563758</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3766747754.21032</v>
+        <v>5628989463.721809</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1190162525534187</v>
+        <v>0.1148743429453735</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02827062333536601</v>
+        <v>0.03228647965926349</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2329827553.637145</v>
+        <v>1643296670.254744</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1148487178012689</v>
+        <v>0.09528616086892736</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03097604553579772</v>
+        <v>0.03769766395446732</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>999675491.4589238</v>
+        <v>1437297656.59607</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07623781630776491</v>
+        <v>0.07096804260663096</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04038896444855911</v>
+        <v>0.04427781065494617</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1578575430.919234</v>
+        <v>1160496271.046797</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1177534846910876</v>
+        <v>0.07509049082613815</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02424488535270218</v>
+        <v>0.03500639483789234</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2388568011.729703</v>
+        <v>2026480670.382516</v>
       </c>
       <c r="F33" t="n">
-        <v>0.185007829463441</v>
+        <v>0.1409059500281532</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04318312521964503</v>
+        <v>0.05877366553499019</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1145133559.040354</v>
+        <v>1501521150.608278</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08441335656202549</v>
+        <v>0.07805513318188885</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02803169783124566</v>
+        <v>0.02506826898597783</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>864466561.9065486</v>
+        <v>1180725170.673289</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08210074664874413</v>
+        <v>0.1007488715095721</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03454669126151168</v>
+        <v>0.03424344484752935</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2076966013.673441</v>
+        <v>2315714178.530625</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1314763290496889</v>
+        <v>0.1404095114513748</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02000586000365556</v>
+        <v>0.02877408261032205</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2848809112.878374</v>
+        <v>1932543308.587003</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09427909194923605</v>
+        <v>0.08443083657247022</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03381479873110282</v>
+        <v>0.03755832650514519</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1846662473.69739</v>
+        <v>1815074139.586553</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08243579973220556</v>
+        <v>0.0755692277887595</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03335203703343722</v>
+        <v>0.02973620689816682</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1498482316.569481</v>
+        <v>1796967802.808293</v>
       </c>
       <c r="F39" t="n">
-        <v>0.12006095109744</v>
+        <v>0.1324124792065167</v>
       </c>
       <c r="G39" t="n">
-        <v>0.032153619162913</v>
+        <v>0.02827717990977134</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1482220214.528379</v>
+        <v>1727057202.787668</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1108744524009393</v>
+        <v>0.101012494585041</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0523151448285381</v>
+        <v>0.05994785638098719</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2702724706.565084</v>
+        <v>1863573042.305964</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1004713485205276</v>
+        <v>0.1254798821001705</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04411342046554561</v>
+        <v>0.04197807460823378</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3745419365.722839</v>
+        <v>3574124249.600481</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08112392675924771</v>
+        <v>0.1037189092255198</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04154162925279853</v>
+        <v>0.02816758177718925</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2950797819.502834</v>
+        <v>2273215610.562374</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1590959583817331</v>
+        <v>0.143742083265494</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02451501477927965</v>
+        <v>0.01861231605445746</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,16 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2185389276.363382</v>
+        <v>2190708887.576025</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09140701251591192</v>
+        <v>0.08292261052294309</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02904265082531959</v>
+        <v>0.03636957094008781</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2228894901.899288</v>
+        <v>1642990403.457937</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1882912114197664</v>
+        <v>0.1699946612744607</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03516104212704747</v>
+        <v>0.05279913090365054</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4526000123.299945</v>
+        <v>3695007042.552472</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1603158235633404</v>
+        <v>0.1100986873378461</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04258941187900226</v>
+        <v>0.04837603852355652</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3223395308.019028</v>
+        <v>4606932035.195351</v>
       </c>
       <c r="F47" t="n">
-        <v>0.193305956610687</v>
+        <v>0.1363388252727038</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05124879909841195</v>
+        <v>0.04660049032557844</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4650038607.594363</v>
+        <v>3549768582.620873</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08821614290905656</v>
+        <v>0.07555163938675295</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03896342307124279</v>
+        <v>0.03696556978415003</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1449112336.764432</v>
+        <v>1360212047.288364</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1443832341970417</v>
+        <v>0.1352333419638923</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02778789030734001</v>
+        <v>0.04040504796051068</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2630613372.457782</v>
+        <v>3789605320.041279</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1299880068411141</v>
+        <v>0.1368626699130389</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05085815812031082</v>
+        <v>0.04023587049616478</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1337246323.248435</v>
+        <v>1324415662.272603</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1923016142339151</v>
+        <v>0.1310393262388793</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03460742165518441</v>
+        <v>0.03737355793709</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3297167518.6559</v>
+        <v>3821541712.89843</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1166504755637202</v>
+        <v>0.08774962222150394</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05810295823527422</v>
+        <v>0.04946649307364161</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3789293917.508893</v>
+        <v>2696514332.725116</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1948460844058798</v>
+        <v>0.1810767965662596</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02939809057880548</v>
+        <v>0.02380251383032541</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4393557287.315574</v>
+        <v>3144099808.505846</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1509262396483248</v>
+        <v>0.1465623908378164</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03971847231253548</v>
+        <v>0.04045936442317409</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4654425350.773756</v>
+        <v>4775934227.96969</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1443604014109892</v>
+        <v>0.1447753823616127</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03219831926078717</v>
+        <v>0.02287880117953795</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1605506847.137789</v>
+        <v>1601419496.085397</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1381559256410309</v>
+        <v>0.100334056501592</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05154776485424063</v>
+        <v>0.05304091761778162</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3420795711.883811</v>
+        <v>4474454736.002254</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1352906927287502</v>
+        <v>0.1251549991672868</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02031557997044862</v>
+        <v>0.02101125237890468</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1518336898.836996</v>
+        <v>1757438604.22652</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1486699250671533</v>
+        <v>0.152502032971132</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02716937644587625</v>
+        <v>0.03314784465023314</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4987543861.070255</v>
+        <v>3922121045.886739</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1284843513382256</v>
+        <v>0.08328942073244618</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04662156008731635</v>
+        <v>0.03225415774808449</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3029205421.420784</v>
+        <v>3442299468.662391</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1513533127343784</v>
+        <v>0.1808113340160033</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03250294568070552</v>
+        <v>0.0236956170480487</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3388026240.136493</v>
+        <v>2314613575.093283</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1459613872149562</v>
+        <v>0.1150632350577946</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03259755557425928</v>
+        <v>0.03042391544798712</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1564902679.191338</v>
+        <v>1544327494.141469</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1366897462888741</v>
+        <v>0.1710507980450451</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03117096336276384</v>
+        <v>0.04232646324696838</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5090552499.548999</v>
+        <v>4625859930.776605</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09662444465859901</v>
+        <v>0.07545819406885006</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04453436595162521</v>
+        <v>0.04730323000974888</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4855395985.077931</v>
+        <v>3677089587.178301</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1414755350286568</v>
+        <v>0.1637952892387404</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02700309445231984</v>
+        <v>0.02286285721953672</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5823110597.462705</v>
+        <v>5439733330.189662</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1474410161697231</v>
+        <v>0.1274385105084907</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02997458583229705</v>
+        <v>0.02782361410890919</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3901793370.038239</v>
+        <v>4517486147.58841</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1621265191227934</v>
+        <v>0.1369429232818631</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03655415655894317</v>
+        <v>0.0333407803837885</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2700523364.682137</v>
+        <v>2799351575.655801</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09079591474262198</v>
+        <v>0.07310916425840773</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04709554927752489</v>
+        <v>0.04298129543272398</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4028536365.783461</v>
+        <v>5816519377.063055</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1582488932123954</v>
+        <v>0.1150535779672746</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04421897816137983</v>
+        <v>0.04445577411801892</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2069397578.928944</v>
+        <v>1756213272.451048</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1192516567065273</v>
+        <v>0.154336741324302</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05474133630541746</v>
+        <v>0.04578433321739438</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3376002261.476379</v>
+        <v>3109906467.408484</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06902737617545318</v>
+        <v>0.09000370680611067</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03219988740391938</v>
+        <v>0.04019747673177503</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4599686898.915003</v>
+        <v>5008888337.384417</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1632029830680803</v>
+        <v>0.1680950843080188</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02324986542753711</v>
+        <v>0.02554951422181172</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1626812857.639307</v>
+        <v>1946480600.623971</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1035687357757574</v>
+        <v>0.1048031834075651</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04302765761805699</v>
+        <v>0.03451894347674434</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2722503349.238566</v>
+        <v>2291834408.702975</v>
       </c>
       <c r="F73" t="n">
-        <v>0.087038463727742</v>
+        <v>0.1116986404707652</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03220158462035021</v>
+        <v>0.03591522923849165</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3945709875.741475</v>
+        <v>3731586633.670547</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1826958004914574</v>
+        <v>0.136924753982782</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02173284201465089</v>
+        <v>0.03076639892191243</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2336518450.641647</v>
+        <v>2494800404.317642</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1385689127811799</v>
+        <v>0.1023286885321222</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03047118821218828</v>
+        <v>0.02720005994844749</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4675190125.248224</v>
+        <v>3841070959.13581</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09265576277307824</v>
+        <v>0.07682394715331675</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02368956781130086</v>
+        <v>0.02736130650249464</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2283414288.220088</v>
+        <v>2119021839.94996</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1526256493772213</v>
+        <v>0.1587706170669468</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02891047191902548</v>
+        <v>0.02322675200848961</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4539788929.496692</v>
+        <v>4323396985.819665</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1187606047040793</v>
+        <v>0.09864452672183925</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03666275118385722</v>
+        <v>0.04351515852203545</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1639294456.628405</v>
+        <v>1907037889.930245</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1648637454300282</v>
+        <v>0.1685682810742322</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03316808369610217</v>
+        <v>0.03471262759394585</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4814357011.156141</v>
+        <v>3665268037.19759</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0731238247027008</v>
+        <v>0.08496021705978708</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03009499099527755</v>
+        <v>0.03008304472082167</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5038261568.814652</v>
+        <v>5095778515.267036</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1143756843268394</v>
+        <v>0.094805024618926</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03024478336269758</v>
+        <v>0.02307504688417793</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4126494815.197361</v>
+        <v>3718312109.832374</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2043981172058015</v>
+        <v>0.1977206589145515</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02038088539288357</v>
+        <v>0.02423107635035397</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2437397432.77567</v>
+        <v>1874712810.889573</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1452180206260678</v>
+        <v>0.1278818738636041</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03309851803985645</v>
+        <v>0.02987495913148951</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2210021252.565096</v>
+        <v>2229294278.145088</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07329873362324861</v>
+        <v>0.08648336987091564</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03262379616178553</v>
+        <v>0.05075284106958961</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2788615885.139124</v>
+        <v>2273639615.732885</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1620593879724178</v>
+        <v>0.1632327919147075</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0477942345620698</v>
+        <v>0.0393196000544333</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2110882469.050844</v>
+        <v>2572580867.070652</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1587152467654148</v>
+        <v>0.1616690287783235</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02761384587239805</v>
+        <v>0.02503576430076796</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1001170516.286853</v>
+        <v>1405781132.773672</v>
       </c>
       <c r="F87" t="n">
-        <v>0.170872045195215</v>
+        <v>0.1734618528537928</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03065626966512402</v>
+        <v>0.03653868514148755</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3478084310.521722</v>
+        <v>2468082509.615496</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1686832103903662</v>
+        <v>0.1404154689561701</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03844284986942525</v>
+        <v>0.03452157900194638</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3436822610.865087</v>
+        <v>2599177787.441753</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1347282884661425</v>
+        <v>0.1319441755872764</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02853542234795707</v>
+        <v>0.03681675027735263</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1562403311.334295</v>
+        <v>1606457589.738113</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1179514729607533</v>
+        <v>0.1311628033886252</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03874494265095256</v>
+        <v>0.03778583853897094</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1858786250.02117</v>
+        <v>1553867961.993359</v>
       </c>
       <c r="F91" t="n">
-        <v>0.161016529901664</v>
+        <v>0.1686185286769414</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0560048604180699</v>
+        <v>0.06027191422970535</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2681668825.98054</v>
+        <v>2919202587.435809</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09548306778794639</v>
+        <v>0.1103012009661738</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04054478617473256</v>
+        <v>0.04499981350730988</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4657361264.325685</v>
+        <v>4235798857.708265</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1344135563877385</v>
+        <v>0.1245706846247234</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04336213587734357</v>
+        <v>0.04940104468019182</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2170233683.680701</v>
+        <v>1799957773.44473</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1055602347664922</v>
+        <v>0.1336469182525569</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0284105167000388</v>
+        <v>0.03710058693026753</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2899197338.450825</v>
+        <v>2133449941.516194</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1290232071844167</v>
+        <v>0.1061965506464593</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04881739574720984</v>
+        <v>0.04170201016606512</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1538961692.282259</v>
+        <v>2248308573.636155</v>
       </c>
       <c r="F96" t="n">
-        <v>0.136761419350353</v>
+        <v>0.1231402879897358</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03135557828110851</v>
+        <v>0.03283839096733331</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4834172344.442248</v>
+        <v>4956712189.294036</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1282067552031124</v>
+        <v>0.1666266229271081</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02756562370657397</v>
+        <v>0.02159413058167114</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3714355324.277635</v>
+        <v>3455859381.522055</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1080089028757741</v>
+        <v>0.1298976959346224</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02180168136358457</v>
+        <v>0.02730210614181931</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2627360080.365995</v>
+        <v>2381879530.691874</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1404828337656362</v>
+        <v>0.131008603692659</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02519940189894609</v>
+        <v>0.03441113113062513</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4508953083.056711</v>
+        <v>3271026644.830718</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1529073855683985</v>
+        <v>0.1495564621104289</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02287767881179555</v>
+        <v>0.01934883705360316</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2429798164.833041</v>
+        <v>3187084480.497262</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1964813410456806</v>
+        <v>0.2218621787711025</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05305762142447371</v>
+        <v>0.03859384859768304</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_478.xlsx
+++ b/output/fit_clients/fit_round_478.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1547290808.932338</v>
+        <v>2185470105.65889</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1105135787041996</v>
+        <v>0.09196961017072254</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03390985766854217</v>
+        <v>0.03089748302732353</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2276561083.111305</v>
+        <v>2503016104.791095</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1167365396797475</v>
+        <v>0.1681913116440361</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04176798364700449</v>
+        <v>0.04001333079848547</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3789833863.420127</v>
+        <v>3695958243.648827</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1302047392953634</v>
+        <v>0.1078920532132212</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03349263039241426</v>
+        <v>0.03267304219740784</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>241</v>
+      </c>
+      <c r="J4" t="n">
+        <v>478</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3167487456.106742</v>
+        <v>3762432603.423104</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06681520591838498</v>
+        <v>0.1090434936451676</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04977486765576816</v>
+        <v>0.04147079284751395</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>201</v>
+      </c>
+      <c r="J5" t="n">
+        <v>478</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2148188602.0273</v>
+        <v>1783713053.484647</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09377624221379585</v>
+        <v>0.1160839489309087</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04898870463947649</v>
+        <v>0.03707952531498293</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3151452179.23105</v>
+        <v>1902544099.650222</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07833269643409109</v>
+        <v>0.08252664285259258</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04958221602090256</v>
+        <v>0.03244569825481221</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +711,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3394266572.737136</v>
+        <v>2991408878.094632</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1909275542557813</v>
+        <v>0.1718474682370792</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02680944572585612</v>
+        <v>0.02469698432935758</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>135</v>
+      </c>
+      <c r="J8" t="n">
+        <v>470</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2218045701.401538</v>
+        <v>2022217783.443202</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1876897002660628</v>
+        <v>0.1914257774765901</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02678050470253244</v>
+        <v>0.03514208238901025</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +775,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5716363394.266025</v>
+        <v>3835289449.026212</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1768811331111433</v>
+        <v>0.2147645321028814</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04295979024609586</v>
+        <v>0.04111352520231154</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>364</v>
+      </c>
+      <c r="J10" t="n">
+        <v>478</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,16 +816,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3707804059.058742</v>
+        <v>2671469876.109192</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1560133282782199</v>
+        <v>0.1539952775945563</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03805756335820397</v>
+        <v>0.04047394249136684</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>199</v>
+      </c>
+      <c r="J11" t="n">
+        <v>477</v>
+      </c>
+      <c r="K11" t="n">
+        <v>15.11522652057414</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2740044005.627097</v>
+        <v>2933386952.755402</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1678505991572997</v>
+        <v>0.173460731663936</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03911460177870111</v>
+        <v>0.05106762707373062</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4796416914.898313</v>
+        <v>5289584777.582702</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09686654240821847</v>
+        <v>0.08293303756313747</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01926569875962869</v>
+        <v>0.0272943968761624</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>247</v>
+      </c>
+      <c r="J13" t="n">
+        <v>478</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +923,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3457187638.593742</v>
+        <v>3127399807.843303</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1628999453166026</v>
+        <v>0.1563561752956507</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02879215745590179</v>
+        <v>0.04113103270109746</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>109</v>
+      </c>
+      <c r="J14" t="n">
+        <v>476</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1369119422.794301</v>
+        <v>1575055033.056484</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08675840913513623</v>
+        <v>0.090234921321436</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03922596274850879</v>
+        <v>0.03317482653963284</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2459522838.070843</v>
+        <v>2251703247.513241</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08772317746831175</v>
+        <v>0.10268524705464</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0464829546138378</v>
+        <v>0.04542393198449297</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1022,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3632025360.592767</v>
+        <v>5029940635.286886</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1123150078851183</v>
+        <v>0.1727398918601285</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04433838282596549</v>
+        <v>0.03870676932731569</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>234</v>
+      </c>
+      <c r="J17" t="n">
+        <v>477</v>
+      </c>
+      <c r="K17" t="n">
+        <v>28.46442069104651</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1059,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2605005293.38741</v>
+        <v>2484502817.936373</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1765282031848194</v>
+        <v>0.1221004663902514</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02516611240067881</v>
+        <v>0.02167289037103504</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>128</v>
+      </c>
+      <c r="J18" t="n">
+        <v>477</v>
+      </c>
+      <c r="K18" t="n">
+        <v>16.36525621094881</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1322484510.777296</v>
+        <v>1254660561.78201</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1316983352872076</v>
+        <v>0.1278426471390959</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02445936141731387</v>
+        <v>0.02631304876418</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2119163795.767851</v>
+        <v>2754773213.397987</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1478375539888601</v>
+        <v>0.1329312628833162</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02427309307204359</v>
+        <v>0.02809024614407737</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2620332326.795668</v>
+        <v>1946774123.756021</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08969168951487948</v>
+        <v>0.08640148534811919</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03771817402975809</v>
+        <v>0.03265628985241346</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1207,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3743301852.421489</v>
+        <v>4047364306.650558</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1300229183465197</v>
+        <v>0.1118483838753532</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05462950613588568</v>
+        <v>0.0414626659955092</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>140</v>
+      </c>
+      <c r="J22" t="n">
+        <v>478</v>
+      </c>
+      <c r="K22" t="n">
+        <v>41.6857280763648</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1459689741.308835</v>
+        <v>1388666756.09705</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1665903792950597</v>
+        <v>0.1557448920097326</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0451043788426957</v>
+        <v>0.03606532558788614</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2602957169.700802</v>
+        <v>3280054487.134573</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1088269202698222</v>
+        <v>0.1086175508728967</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03087322799237426</v>
+        <v>0.0282510230391518</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>151</v>
+      </c>
+      <c r="J24" t="n">
+        <v>472</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>959068253.5108556</v>
+        <v>898755802.9849198</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09904283603527211</v>
+        <v>0.09155429609772457</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02835944724178844</v>
+        <v>0.02637897151329207</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1305805958.639186</v>
+        <v>987120792.0526459</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09153779035391935</v>
+        <v>0.08322557329427339</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02495070586069868</v>
+        <v>0.03622175109250783</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1384,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2922780984.804821</v>
+        <v>4520670824.594384</v>
       </c>
       <c r="F27" t="n">
-        <v>0.124617681425552</v>
+        <v>0.1135263116995509</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01956662301049612</v>
+        <v>0.02147043916420904</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>212</v>
+      </c>
+      <c r="J27" t="n">
+        <v>478</v>
+      </c>
+      <c r="K27" t="n">
+        <v>30.73067720438982</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2643704360.464306</v>
+        <v>3394682529.425848</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1020498479206024</v>
+        <v>0.09282031899626413</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03852264103563758</v>
+        <v>0.03064219784674349</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>117</v>
+      </c>
+      <c r="J28" t="n">
+        <v>471</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5628989463.721809</v>
+        <v>5527614817.965812</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1148743429453735</v>
+        <v>0.1140689159464801</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03228647965926349</v>
+        <v>0.02856676336710156</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>380</v>
+      </c>
+      <c r="J29" t="n">
+        <v>477</v>
+      </c>
+      <c r="K29" t="n">
+        <v>30.41490568541997</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1643296670.254744</v>
+        <v>1813714918.350016</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09528616086892736</v>
+        <v>0.08630339736742221</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03769766395446732</v>
+        <v>0.03598918215149878</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1437297656.59607</v>
+        <v>1468406521.617874</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07096804260663096</v>
+        <v>0.09676401391332029</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04427781065494617</v>
+        <v>0.04885802283323833</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1160496271.046797</v>
+        <v>1379629055.722068</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07509049082613815</v>
+        <v>0.1146964533911848</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03500639483789234</v>
+        <v>0.03091439594378185</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2026480670.382516</v>
+        <v>2581452501.603722</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1409059500281532</v>
+        <v>0.1514443609303024</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05877366553499019</v>
+        <v>0.04526324213868184</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1501521150.608278</v>
+        <v>1573097990.521412</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07805513318188885</v>
+        <v>0.09783583447395255</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02506826898597783</v>
+        <v>0.02727991898736235</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1180725170.673289</v>
+        <v>822891790.4612005</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1007488715095721</v>
+        <v>0.1137731102054906</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03424344484752935</v>
+        <v>0.04092617280579522</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2315714178.530625</v>
+        <v>3101661749.749691</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1404095114513748</v>
+        <v>0.1170757129708709</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02877408261032205</v>
+        <v>0.02526535866932979</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1932543308.587003</v>
+        <v>2323111100.833512</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08443083657247022</v>
+        <v>0.09000057372627147</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03755832650514519</v>
+        <v>0.02798146985858676</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1815074139.586553</v>
+        <v>1893441977.897573</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0755692277887595</v>
+        <v>0.09604826699436943</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02973620689816682</v>
+        <v>0.03423272649018682</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1796967802.808293</v>
+        <v>1940300168.759472</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1324124792065167</v>
+        <v>0.148671856123119</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02827717990977134</v>
+        <v>0.02345272430372276</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1727057202.787668</v>
+        <v>1781591402.296108</v>
       </c>
       <c r="F40" t="n">
-        <v>0.101012494585041</v>
+        <v>0.1367492236785386</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05994785638098719</v>
+        <v>0.05057072166470417</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1863573042.305964</v>
+        <v>2224589184.475291</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1254798821001705</v>
+        <v>0.1366919418612705</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04197807460823378</v>
+        <v>0.03930617039286798</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1913,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3574124249.600481</v>
+        <v>4110050623.866961</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1037189092255198</v>
+        <v>0.1159174794712416</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02816758177718925</v>
+        <v>0.03839135147547264</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>207</v>
+      </c>
+      <c r="J42" t="n">
+        <v>478</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2273215610.562374</v>
+        <v>2234395187.311489</v>
       </c>
       <c r="F43" t="n">
-        <v>0.143742083265494</v>
+        <v>0.1332199411221005</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01861231605445746</v>
+        <v>0.02071380517224811</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2190708887.576025</v>
+        <v>2013685270.2819</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08292261052294309</v>
+        <v>0.06718925507978069</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03636957094008781</v>
+        <v>0.02834722211526326</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1642990403.457937</v>
+        <v>2039663147.10234</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1699946612744607</v>
+        <v>0.1788635809217738</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05279913090365054</v>
+        <v>0.04869797419210635</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3695007042.552472</v>
+        <v>5007047354.490357</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1100986873378461</v>
+        <v>0.151863644766726</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04837603852355652</v>
+        <v>0.04493563459087317</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>282</v>
+      </c>
+      <c r="J46" t="n">
+        <v>477</v>
+      </c>
+      <c r="K46" t="n">
+        <v>30.36572520791874</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4606932035.195351</v>
+        <v>4245077067.930402</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1363388252727038</v>
+        <v>0.1479530196338507</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04660049032557844</v>
+        <v>0.05350009058746956</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>216</v>
+      </c>
+      <c r="J47" t="n">
+        <v>478</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3549768582.620873</v>
+        <v>4040284759.715444</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07555163938675295</v>
+        <v>0.1094445420247061</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03696556978415003</v>
+        <v>0.03043215474654179</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>239</v>
+      </c>
+      <c r="J48" t="n">
+        <v>478</v>
+      </c>
+      <c r="K48" t="n">
+        <v>33.49018907985798</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1360212047.288364</v>
+        <v>1242708138.276481</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1352333419638923</v>
+        <v>0.1363834199838893</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04040504796051068</v>
+        <v>0.02907485802976985</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3789605320.041279</v>
+        <v>2718513891.452043</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1368626699130389</v>
+        <v>0.1296688662902301</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04023587049616478</v>
+        <v>0.05161601846557312</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>171</v>
+      </c>
+      <c r="J50" t="n">
+        <v>477</v>
+      </c>
+      <c r="K50" t="n">
+        <v>17.11369869333371</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1324415662.272603</v>
+        <v>1454857237.889062</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1310393262388793</v>
+        <v>0.1811250434252059</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03737355793709</v>
+        <v>0.04370759787664401</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3821541712.89843</v>
+        <v>4181914298.60513</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08774962222150394</v>
+        <v>0.1170871313929593</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04946649307364161</v>
+        <v>0.04316108996528645</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>268</v>
+      </c>
+      <c r="J52" t="n">
+        <v>477</v>
+      </c>
+      <c r="K52" t="n">
+        <v>28.99081706538451</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2696514332.725116</v>
+        <v>3400638141.960099</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1810767965662596</v>
+        <v>0.1340431127652098</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02380251383032541</v>
+        <v>0.02491630514028311</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>74</v>
+      </c>
+      <c r="J53" t="n">
+        <v>471</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2341,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3144099808.505846</v>
+        <v>3336699695.354423</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1465623908378164</v>
+        <v>0.1530194358691384</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04045936442317409</v>
+        <v>0.04998676411689706</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>252</v>
+      </c>
+      <c r="J54" t="n">
+        <v>476</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4775934227.96969</v>
+        <v>4115114427.679723</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1447753823616127</v>
+        <v>0.194973705723449</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02287880117953795</v>
+        <v>0.02536504039128165</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>236</v>
+      </c>
+      <c r="J55" t="n">
+        <v>478</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1601419496.085397</v>
+        <v>1574649114.87517</v>
       </c>
       <c r="F56" t="n">
-        <v>0.100334056501592</v>
+        <v>0.1573884844243852</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05304091761778162</v>
+        <v>0.03503711813886214</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4474454736.002254</v>
+        <v>4116363813.315044</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1251549991672868</v>
+        <v>0.1676677894302592</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02101125237890468</v>
+        <v>0.01936549047741422</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>205</v>
+      </c>
+      <c r="J57" t="n">
+        <v>478</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1757438604.22652</v>
+        <v>1166023277.46553</v>
       </c>
       <c r="F58" t="n">
-        <v>0.152502032971132</v>
+        <v>0.1848137603956148</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03314784465023314</v>
+        <v>0.02675375936201148</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2516,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3922121045.886739</v>
+        <v>3344367614.925694</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08328942073244618</v>
+        <v>0.07867828904938663</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03225415774808449</v>
+        <v>0.03144296524072422</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>234</v>
+      </c>
+      <c r="J59" t="n">
+        <v>476</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,16 +2551,25 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3442299468.662391</v>
+        <v>2862243727.112866</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1808113340160033</v>
+        <v>0.203467305586976</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0236956170480487</v>
+        <v>0.02210157093090916</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>97</v>
+      </c>
+      <c r="J60" t="n">
+        <v>477</v>
+      </c>
+      <c r="K60" t="n">
+        <v>25.46847457984383</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2314613575.093283</v>
+        <v>2976809894.025846</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1150632350577946</v>
+        <v>0.1323946583702067</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03042391544798712</v>
+        <v>0.02820261188111765</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1544327494.141469</v>
+        <v>1599694249.68027</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1710507980450451</v>
+        <v>0.1537251151785559</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04232646324696838</v>
+        <v>0.03358595672295498</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4625859930.776605</v>
+        <v>4700566941.524553</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07545819406885006</v>
+        <v>0.09523504105726555</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04730323000974888</v>
+        <v>0.03827054751536562</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>238</v>
+      </c>
+      <c r="J63" t="n">
+        <v>478</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2693,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3677089587.178301</v>
+        <v>5178112008.518758</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1637952892387404</v>
+        <v>0.1557478461986027</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02286285721953672</v>
+        <v>0.03348350395578316</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>239</v>
+      </c>
+      <c r="J64" t="n">
+        <v>477</v>
+      </c>
+      <c r="K64" t="n">
+        <v>25.97354918994971</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5439733330.189662</v>
+        <v>5957571965.967047</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1274385105084907</v>
+        <v>0.1443082447363262</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02782361410890919</v>
+        <v>0.0261360499925243</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>336</v>
+      </c>
+      <c r="J65" t="n">
+        <v>478</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4517486147.58841</v>
+        <v>5541406641.277369</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1369429232818631</v>
+        <v>0.1480625109500367</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0333407803837885</v>
+        <v>0.0505499892750387</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>236</v>
+      </c>
+      <c r="J66" t="n">
+        <v>477</v>
+      </c>
+      <c r="K66" t="n">
+        <v>28.22307256579452</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2799351575.655801</v>
+        <v>3158664523.127542</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07310916425840773</v>
+        <v>0.09659805552964477</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04298129543272398</v>
+        <v>0.04410505796842748</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5816519377.063055</v>
+        <v>4324782235.126911</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1150535779672746</v>
+        <v>0.1494704112404916</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04445577411801892</v>
+        <v>0.04410293520124673</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>260</v>
+      </c>
+      <c r="J68" t="n">
+        <v>477</v>
+      </c>
+      <c r="K68" t="n">
+        <v>27.64139864946784</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1756213272.451048</v>
+        <v>2193559903.202428</v>
       </c>
       <c r="F69" t="n">
-        <v>0.154336741324302</v>
+        <v>0.1266691689480705</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04578433321739438</v>
+        <v>0.05847781775076326</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3109906467.408484</v>
+        <v>2899447126.381706</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09000370680611067</v>
+        <v>0.09061760490992499</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04019747673177503</v>
+        <v>0.03785896161054796</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>71</v>
+      </c>
+      <c r="J70" t="n">
+        <v>468</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5008888337.384417</v>
+        <v>5135898253.662217</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1680950843080188</v>
+        <v>0.1570801582113178</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02554951422181172</v>
+        <v>0.02916886245785367</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>323</v>
+      </c>
+      <c r="J71" t="n">
+        <v>478</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1946480600.623971</v>
+        <v>1781335562.63695</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1048031834075651</v>
+        <v>0.08544143433102828</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03451894347674434</v>
+        <v>0.04885451756326942</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3008,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2291834408.702975</v>
+        <v>2649613969.932219</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1116986404707652</v>
+        <v>0.1003273866483318</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03591522923849165</v>
+        <v>0.05271618680400025</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>44</v>
+      </c>
+      <c r="J73" t="n">
+        <v>477</v>
+      </c>
+      <c r="K73" t="n">
+        <v>28.30981525644446</v>
       </c>
     </row>
     <row r="74">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3731586633.670547</v>
+        <v>2682285425.613003</v>
       </c>
       <c r="F74" t="n">
-        <v>0.136924753982782</v>
+        <v>0.1352491494842599</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03076639892191243</v>
+        <v>0.02826852667777528</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>142</v>
+      </c>
+      <c r="J74" t="n">
+        <v>474</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2494800404.317642</v>
+        <v>2248312237.974739</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1023286885321222</v>
+        <v>0.1497135085559905</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02720005994844749</v>
+        <v>0.03403726424612314</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3841070959.13581</v>
+        <v>3654675416.77143</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07682394715331675</v>
+        <v>0.08703038645946845</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02736130650249464</v>
+        <v>0.03312298123144254</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>228</v>
+      </c>
+      <c r="J76" t="n">
+        <v>478</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2119021839.94996</v>
+        <v>1547584331.901266</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1587706170669468</v>
+        <v>0.1490121701822687</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02322675200848961</v>
+        <v>0.02424465786781034</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4323396985.819665</v>
+        <v>4378241971.184851</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09864452672183925</v>
+        <v>0.1332895448766118</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04351515852203545</v>
+        <v>0.05302778431364127</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>238</v>
+      </c>
+      <c r="J78" t="n">
+        <v>477</v>
+      </c>
+      <c r="K78" t="n">
+        <v>27.470294899687</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1907037889.930245</v>
+        <v>1841030246.140154</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1685682810742322</v>
+        <v>0.1139878072144202</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03471262759394585</v>
+        <v>0.02633991640577444</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3263,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3665268037.19759</v>
+        <v>5250035321.405636</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08496021705978708</v>
+        <v>0.08458717947218398</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03008304472082167</v>
+        <v>0.02786766973047047</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>233</v>
+      </c>
+      <c r="J80" t="n">
+        <v>478</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5095778515.267036</v>
+        <v>4885131137.927159</v>
       </c>
       <c r="F81" t="n">
-        <v>0.094805024618926</v>
+        <v>0.1367059371313023</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02307504688417793</v>
+        <v>0.02567273936541229</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>223</v>
+      </c>
+      <c r="J81" t="n">
+        <v>477</v>
+      </c>
+      <c r="K81" t="n">
+        <v>29.96829676510726</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3718312109.832374</v>
+        <v>5674204456.034645</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1977206589145515</v>
+        <v>0.2115282465057027</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02423107635035397</v>
+        <v>0.02718987707195124</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>314</v>
+      </c>
+      <c r="J82" t="n">
+        <v>478</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1874712810.889573</v>
+        <v>1905920883.246104</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1278818738636041</v>
+        <v>0.1474372294662496</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02987495913148951</v>
+        <v>0.03226831523829738</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2229294278.145088</v>
+        <v>2218590386.397689</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08648336987091564</v>
+        <v>0.1072134682524738</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05075284106958961</v>
+        <v>0.0497119651707376</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2273639615.732885</v>
+        <v>2894173900.544772</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1632327919147075</v>
+        <v>0.1279606051716035</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0393196000544333</v>
+        <v>0.05132034533016933</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>70</v>
+      </c>
+      <c r="J85" t="n">
+        <v>478</v>
+      </c>
+      <c r="K85" t="n">
+        <v>31.28314033380729</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2572580867.070652</v>
+        <v>2050501514.822788</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1616690287783235</v>
+        <v>0.1277347278445624</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02503576430076796</v>
+        <v>0.02136523805307756</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1405781132.773672</v>
+        <v>1475458950.182544</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1734618528537928</v>
+        <v>0.1627451446647956</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03653868514148755</v>
+        <v>0.02875863763024906</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2468082509.615496</v>
+        <v>3270514166.601494</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1404154689561701</v>
+        <v>0.153977946337774</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03452157900194638</v>
+        <v>0.04010922542023949</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>67</v>
+      </c>
+      <c r="J88" t="n">
+        <v>476</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2599177787.441753</v>
+        <v>2727451825.117902</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1319441755872764</v>
+        <v>0.125126410503235</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03681675027735263</v>
+        <v>0.03355287146088537</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>466</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1606457589.738113</v>
+        <v>1919272509.741268</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1311628033886252</v>
+        <v>0.1192199167391716</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03778583853897094</v>
+        <v>0.0544394604082704</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1553867961.993359</v>
+        <v>2040541315.365658</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1686185286769414</v>
+        <v>0.1816807974927932</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06027191422970535</v>
+        <v>0.04075487555261002</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2919202587.435809</v>
+        <v>2652275741.190061</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1103012009661738</v>
+        <v>0.1014596949648523</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04499981350730988</v>
+        <v>0.03597653324851583</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4235798857.708265</v>
+        <v>4035118967.847256</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1245706846247234</v>
+        <v>0.1277875514675939</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04940104468019182</v>
+        <v>0.04571905821434341</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>228</v>
+      </c>
+      <c r="J93" t="n">
+        <v>478</v>
+      </c>
+      <c r="K93" t="n">
+        <v>32.78658907714758</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1799957773.44473</v>
+        <v>2353817059.725215</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1336469182525569</v>
+        <v>0.1257836249598759</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03710058693026753</v>
+        <v>0.03155754714298889</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2133449941.516194</v>
+        <v>2395826407.514958</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1061965506464593</v>
+        <v>0.1133437376841586</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04170201016606512</v>
+        <v>0.04697299218912972</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2248308573.636155</v>
+        <v>2146297726.576913</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1231402879897358</v>
+        <v>0.09992036993507712</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03283839096733331</v>
+        <v>0.03307231300955654</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3864,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4956712189.294036</v>
+        <v>4014956978.281638</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1666266229271081</v>
+        <v>0.1251009802077148</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02159413058167114</v>
+        <v>0.02472200940273524</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>249</v>
+      </c>
+      <c r="J97" t="n">
+        <v>477</v>
+      </c>
+      <c r="K97" t="n">
+        <v>28.63022346538751</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3455859381.522055</v>
+        <v>3608520725.974126</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1298976959346224</v>
+        <v>0.1221989323855078</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02730210614181931</v>
+        <v>0.03191428390267057</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>121</v>
+      </c>
+      <c r="J98" t="n">
+        <v>478</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2381879530.691874</v>
+        <v>2495879414.344288</v>
       </c>
       <c r="F99" t="n">
-        <v>0.131008603692659</v>
+        <v>0.1352608117097635</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03441113113062513</v>
+        <v>0.03224670855957142</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3271026644.830718</v>
+        <v>3042715014.968909</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1495564621104289</v>
+        <v>0.1455333337825934</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01934883705360316</v>
+        <v>0.0220771912978077</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>223</v>
+      </c>
+      <c r="J100" t="n">
+        <v>476</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3187084480.497262</v>
+        <v>2240216519.293286</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2218621787711025</v>
+        <v>0.2205023344935645</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03859384859768304</v>
+        <v>0.05066910474727438</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
